--- a/data/trans_dic/P1801_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1801_2016_2023-Clase-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.4911547731012416</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.538059099538669</v>
+        <v>0.5380590995386691</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.5831940125653602</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4454880514101768</v>
+        <v>0.4403582242538892</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.487636014694428</v>
+        <v>0.4933636837698966</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5296084679631977</v>
+        <v>0.5344037182186736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5890548878725302</v>
+        <v>0.5869290852497745</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4927321165013676</v>
+        <v>0.4942003190656096</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.549244019137502</v>
+        <v>0.548341151321306</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5441489187052675</v>
+        <v>0.5460216401028843</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.579111418647751</v>
+        <v>0.5801480456446672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6436991105920523</v>
+        <v>0.6384791760839695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6672134282892583</v>
+        <v>0.6652169898166944</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5667810694886222</v>
+        <v>0.5669030497108221</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6089023605838226</v>
+        <v>0.6106333575676888</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4382468811067548</v>
+        <v>0.4434772037071445</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5097520228852215</v>
+        <v>0.5067270063837902</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5269079707442911</v>
+        <v>0.5287726080692395</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5170916176806841</v>
+        <v>0.5171712462091631</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5002311062080825</v>
+        <v>0.5002336417234508</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5247143669611102</v>
+        <v>0.5278255178604339</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5495616536318059</v>
+        <v>0.5500126559208739</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6038444604780773</v>
+        <v>0.6014908207361639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6305693048016968</v>
+        <v>0.6320277909644912</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6005095382656294</v>
+        <v>0.6050958707463734</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.57826613614509</v>
+        <v>0.5732440450629765</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5889367702920979</v>
+        <v>0.5915338652457027</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.5336091458194795</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.5184128139951134</v>
+        <v>0.5184128139951133</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.6346346874787763</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4902226322909667</v>
+        <v>0.4912074102458069</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.467911453672648</v>
+        <v>0.4704129169041488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.560321206826349</v>
+        <v>0.5568622440150712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5078777495170541</v>
+        <v>0.5197466551718685</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5194608236898706</v>
+        <v>0.5209671326357778</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4952455952750575</v>
+        <v>0.4976640639080294</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5763395445126378</v>
+        <v>0.5810116326390422</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5670857334343787</v>
+        <v>0.5647902855350079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7077038724189236</v>
+        <v>0.7090449278404823</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6340194701043858</v>
+        <v>0.6402294526951066</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5981408454054207</v>
+        <v>0.5955032608559436</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5758782840080232</v>
+        <v>0.5722203980290261</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.546071909347103</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5868221449358285</v>
+        <v>0.5868221449358286</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5070389231499542</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4493024760818581</v>
+        <v>0.446105491855588</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4549844131507894</v>
+        <v>0.4579564836859443</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5081968130836576</v>
+        <v>0.509031907170296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5552922510107063</v>
+        <v>0.5571312659168279</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4836032965911785</v>
+        <v>0.4838325095611537</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5080476887291903</v>
+        <v>0.5090533739541957</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.508874300581895</v>
+        <v>0.5089201180661648</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5231599537866191</v>
+        <v>0.5230797415403685</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5797355143670501</v>
+        <v>0.5778513658712982</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6158898174081798</v>
+        <v>0.6167716166406612</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5291469157299745</v>
+        <v>0.528316957423364</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5524019932424342</v>
+        <v>0.5548383392261721</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4111706952611556</v>
+        <v>0.416055256713203</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.391878812356008</v>
+        <v>0.3944842266465195</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5161018150282158</v>
+        <v>0.5142187669596602</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5419536523632937</v>
+        <v>0.5386486237465808</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4798517536284272</v>
+        <v>0.4742567344746103</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4931997979127441</v>
+        <v>0.4908735842315642</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4896580489259113</v>
+        <v>0.4973626714685941</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4818464249744138</v>
+        <v>0.481586688103272</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5904108357964384</v>
+        <v>0.5888705916382774</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5998276223345022</v>
+        <v>0.6013854597775133</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5355196216141578</v>
+        <v>0.5339648272477214</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5421242237330307</v>
+        <v>0.5441113275841686</v>
       </c>
     </row>
     <row r="19">
@@ -1022,13 +1022,13 @@
         <v>0.2372925826248848</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.1961708095242758</v>
+        <v>0.1961708095242759</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.5881778539911743</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4737215856913632</v>
+        <v>0.4737215856913631</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.5145894734328532</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1873737136444388</v>
+        <v>0.1896903003414592</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1291225883774403</v>
+        <v>0.1277519382695906</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5552209626750305</v>
+        <v>0.55696537728176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4405881014387258</v>
+        <v>0.435875304302586</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4833312835792047</v>
+        <v>0.4864505105630947</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3816709775303497</v>
+        <v>0.381809025354828</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2918115143732931</v>
+        <v>0.2870910435655556</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2827905873878149</v>
+        <v>0.284575961212009</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6190828268268487</v>
+        <v>0.6167081554940098</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5089550820053083</v>
+        <v>0.5063223990942333</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5406314195658619</v>
+        <v>0.5422991852218796</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.447305213365819</v>
+        <v>0.4448836606169433</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.4655276552755481</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.481552875235434</v>
+        <v>0.4815528752354339</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.5718593094948551</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4483171191896222</v>
+        <v>0.4484874406428018</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4616705137760578</v>
+        <v>0.4642118919721216</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5551420268593736</v>
+        <v>0.5564144603895906</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5436878513252844</v>
+        <v>0.5425899605412294</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5073389593713516</v>
+        <v>0.5083139186868649</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5089819136806926</v>
+        <v>0.5096522787246974</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4830060866969914</v>
+        <v>0.4833481234313738</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4992803872996557</v>
+        <v>0.4998417863917783</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5890323130324866</v>
+        <v>0.5900414574961343</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5736405913126013</v>
+        <v>0.5741884606276723</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5321182882105164</v>
+        <v>0.533318634758475</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5327404043932085</v>
+        <v>0.5331691719054698</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>191155</v>
+        <v>188954</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>267952</v>
+        <v>271099</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>183803</v>
+        <v>185467</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>286656</v>
+        <v>285622</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>382433</v>
+        <v>383572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>569088</v>
+        <v>568152</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>233490</v>
+        <v>234294</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>318217</v>
+        <v>318786</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>223399</v>
+        <v>221587</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>324691</v>
+        <v>323720</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>439905</v>
+        <v>440000</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>630901</v>
+        <v>632695</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>165319</v>
+        <v>167292</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>246318</v>
+        <v>244857</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>196154</v>
+        <v>196848</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>218461</v>
+        <v>218495</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>374923</v>
+        <v>374925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>475230</v>
+        <v>478047</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>207309</v>
+        <v>207480</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>291785</v>
+        <v>290648</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>234744</v>
+        <v>235287</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>253703</v>
+        <v>255641</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>433410</v>
+        <v>429646</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>533395</v>
+        <v>535747</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>255854</v>
+        <v>256368</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>220673</v>
+        <v>221852</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>93082</v>
+        <v>92508</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94883</v>
+        <v>97100</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>357408</v>
+        <v>358444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>326087</v>
+        <v>327679</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>300800</v>
+        <v>303238</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>267444</v>
+        <v>266362</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>117566</v>
+        <v>117789</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>118449</v>
+        <v>119609</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>411542</v>
+        <v>409728</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>379178</v>
+        <v>376769</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>516535</v>
+        <v>512860</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>514484</v>
+        <v>517844</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>419708</v>
+        <v>420397</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>476968</v>
+        <v>478548</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>955365</v>
+        <v>955818</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1010874</v>
+        <v>1012875</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>585021</v>
+        <v>585074</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>591575</v>
+        <v>591484</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>478790</v>
+        <v>477234</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>529019</v>
+        <v>529776</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1045337</v>
+        <v>1043698</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1099127</v>
+        <v>1103975</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>255216</v>
+        <v>258248</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>222150</v>
+        <v>223627</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>381009</v>
+        <v>379619</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>449800</v>
+        <v>447057</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>652095</v>
+        <v>644491</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>688924</v>
+        <v>685675</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>303934</v>
+        <v>308716</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>273152</v>
+        <v>273004</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>435867</v>
+        <v>434730</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>497834</v>
+        <v>499126</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>727744</v>
+        <v>725632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>757264</v>
+        <v>760040</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>53803</v>
+        <v>54469</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>30631</v>
+        <v>30306</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>600763</v>
+        <v>602650</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>371441</v>
+        <v>367468</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>661763</v>
+        <v>666033</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>412314</v>
+        <v>412463</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>83792</v>
+        <v>82437</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>67086</v>
+        <v>67509</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>669863</v>
+        <v>667294</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>429079</v>
+        <v>426859</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>740216</v>
+        <v>742500</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>483218</v>
+        <v>480602</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1517877</v>
+        <v>1518454</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1587777</v>
+        <v>1596518</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1960537</v>
+        <v>1965031</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>1972451</v>
+        <v>1968468</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3509425</v>
+        <v>3516169</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3597031</v>
+        <v>3601769</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1635324</v>
+        <v>1636482</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1717125</v>
+        <v>1719056</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2080224</v>
+        <v>2083788</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2081116</v>
+        <v>2083104</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>3680831</v>
+        <v>3689135</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3764935</v>
+        <v>3767965</v>
       </c>
     </row>
     <row r="32">
